--- a/hardware/PCB/DiPLab_AccShield_v02_PickAndPlace.xlsx
+++ b/hardware/PCB/DiPLab_AccShield_v02_PickAndPlace.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="DiPLab_v02_PickAndPlace" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_DiPLab_MS001" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>Designator</t>
   </si>
@@ -85,6 +85,48 @@
     <t>easyC</t>
   </si>
   <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>LIS3DHTR</t>
+  </si>
+  <si>
+    <t>LGA-16_L3.0-W3.0-P0.50-TL</t>
+  </si>
+  <si>
+    <t>16.891mm</t>
+  </si>
+  <si>
+    <t>6.604mm</t>
+  </si>
+  <si>
+    <t>15.491mm</t>
+  </si>
+  <si>
+    <t>7.604mm</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>CL31A106KAHNNNE</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>14.097mm</t>
+  </si>
+  <si>
+    <t>10.668mm</t>
+  </si>
+  <si>
+    <t>15.69mm</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
@@ -106,52 +148,10 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>LIS3DHTR</t>
-  </si>
-  <si>
-    <t>LGA-16_L3.0-W3.0-P0.50-TL</t>
-  </si>
-  <si>
-    <t>16.891mm</t>
-  </si>
-  <si>
-    <t>6.604mm</t>
-  </si>
-  <si>
-    <t>15.491mm</t>
-  </si>
-  <si>
-    <t>7.604mm</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>CL31A106KAHNNNE</t>
-  </si>
-  <si>
-    <t>C1206</t>
-  </si>
-  <si>
-    <t>14.097mm</t>
-  </si>
-  <si>
-    <t>10.668mm</t>
-  </si>
-  <si>
-    <t>15.69mm</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
     <t>H2</t>
   </si>
   <si>
-    <t>HDR-M_2.54_1x4P</t>
+    <t>PZ254V-11-04P</t>
   </si>
   <si>
     <t>HDR-TH_4P-P2.54-V-M</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>TH Connector</t>
   </si>
 </sst>
 </file>
@@ -669,10 +666,10 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -684,7 +681,7 @@
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -713,22 +710,22 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M4" t="s">
         <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -766,7 +763,7 @@
         <v>21</v>
       </c>
       <c r="L5">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
@@ -816,7 +813,7 @@
         <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
